--- a/www/IndicatorsPerCountry/Algeria_GDPperCapita_TerritorialRef_1962_2012_CCode_12.xlsx
+++ b/www/IndicatorsPerCountry/Algeria_GDPperCapita_TerritorialRef_1962_2012_CCode_12.xlsx
@@ -255,13 +255,13 @@
     <t>Bolt, Jutta and Jan Luiten van Zanden (2015). GDP per Capita. http://hdl.handle.net/10622/8FCYOX, accessed via the Clio Infra website.</t>
   </si>
   <si>
-    <t>https://www.clio-infra.eu/citations/DOI-10622_8FCYOX.xml</t>
-  </si>
-  <si>
-    <t>https://www.clio-infra.eu/citations/DOI-10622_8FCYOX.ris</t>
-  </si>
-  <si>
-    <t>https://www.clio-infra.eu/citations/DOI-10622_8FCYOX.bib</t>
+    <t>https://www.clio-infra.eu/Citations/DOI-10622_8FCYOX.xml</t>
+  </si>
+  <si>
+    <t>https://www.clio-infra.eu/Citations/DOI-10622_8FCYOX.ris</t>
+  </si>
+  <si>
+    <t>https://www.clio-infra.eu/Citations/DOI-10622_8FCYOX.bib</t>
   </si>
 </sst>
 </file>

--- a/www/IndicatorsPerCountry/Algeria_GDPperCapita_TerritorialRef_1962_2012_CCode_12.xlsx
+++ b/www/IndicatorsPerCountry/Algeria_GDPperCapita_TerritorialRef_1962_2012_CCode_12.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="590" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="608" uniqueCount="89">
   <si>
     <t>Country Code</t>
   </si>
@@ -36,196 +36,214 @@
     <t>GDP per Capita</t>
   </si>
   <si>
-    <t>430</t>
+    <t>685</t>
   </si>
   <si>
     <t/>
   </si>
   <si>
-    <t>715</t>
-  </si>
-  <si>
-    <t>1163</t>
-  </si>
-  <si>
-    <t>1365</t>
-  </si>
-  <si>
-    <t>1347</t>
-  </si>
-  <si>
-    <t>1376</t>
-  </si>
-  <si>
-    <t>1369</t>
-  </si>
-  <si>
-    <t>1437</t>
-  </si>
-  <si>
-    <t>1445</t>
-  </si>
-  <si>
-    <t>1553</t>
-  </si>
-  <si>
-    <t>1693</t>
-  </si>
-  <si>
-    <t>1719</t>
-  </si>
-  <si>
-    <t>1994</t>
-  </si>
-  <si>
-    <t>2088</t>
-  </si>
-  <si>
-    <t>1799</t>
-  </si>
-  <si>
-    <t>1433</t>
-  </si>
-  <si>
-    <t>1768</t>
-  </si>
-  <si>
-    <t>1806</t>
-  </si>
-  <si>
-    <t>1870</t>
-  </si>
-  <si>
-    <t>1725</t>
-  </si>
-  <si>
-    <t>1824</t>
-  </si>
-  <si>
-    <t>1977</t>
-  </si>
-  <si>
-    <t>2105</t>
-  </si>
-  <si>
-    <t>2249</t>
-  </si>
-  <si>
-    <t>2000</t>
-  </si>
-  <si>
-    <t>2350</t>
-  </si>
-  <si>
-    <t>2357</t>
-  </si>
-  <si>
-    <t>2428</t>
-  </si>
-  <si>
-    <t>2522</t>
-  </si>
-  <si>
-    <t>2608</t>
-  </si>
-  <si>
-    <t>2759</t>
-  </si>
-  <si>
-    <t>3019</t>
-  </si>
-  <si>
-    <t>3192</t>
-  </si>
-  <si>
-    <t>3152</t>
-  </si>
-  <si>
-    <t>3131</t>
-  </si>
-  <si>
-    <t>3228</t>
-  </si>
-  <si>
-    <t>3289</t>
-  </si>
-  <si>
-    <t>3363</t>
-  </si>
-  <si>
-    <t>3431</t>
-  </si>
-  <si>
-    <t>3301</t>
-  </si>
-  <si>
-    <t>3043</t>
-  </si>
-  <si>
-    <t>3067</t>
-  </si>
-  <si>
-    <t>2946.86562215</t>
-  </si>
-  <si>
-    <t>2839.85654304</t>
-  </si>
-  <si>
-    <t>2812.5824981</t>
-  </si>
-  <si>
-    <t>2686.41208515</t>
-  </si>
-  <si>
-    <t>2604.32998454</t>
-  </si>
-  <si>
-    <t>2650.75598233</t>
-  </si>
-  <si>
-    <t>2702.2606758</t>
-  </si>
-  <si>
-    <t>2687.2029767</t>
-  </si>
-  <si>
-    <t>2781.52457704</t>
-  </si>
-  <si>
-    <t>2829.09919277</t>
-  </si>
-  <si>
-    <t>2849.06603938</t>
-  </si>
-  <si>
-    <t>2884.63389954</t>
-  </si>
-  <si>
-    <t>2977.43973908</t>
-  </si>
-  <si>
-    <t>3137.91955708</t>
-  </si>
-  <si>
-    <t>3252.72770589</t>
-  </si>
-  <si>
-    <t>3370.14656685</t>
-  </si>
-  <si>
-    <t>3385.77185103</t>
-  </si>
-  <si>
-    <t>3427.71155668</t>
-  </si>
-  <si>
-    <t>3447.41914453</t>
-  </si>
-  <si>
-    <t>3466.54258054</t>
-  </si>
-  <si>
-    <t>3512.58073913</t>
+    <t>1140</t>
+  </si>
+  <si>
+    <t>1854</t>
+  </si>
+  <si>
+    <t>2176</t>
+  </si>
+  <si>
+    <t>2147</t>
+  </si>
+  <si>
+    <t>2193</t>
+  </si>
+  <si>
+    <t>2182</t>
+  </si>
+  <si>
+    <t>2291</t>
+  </si>
+  <si>
+    <t>2303</t>
+  </si>
+  <si>
+    <t>2475</t>
+  </si>
+  <si>
+    <t>2699</t>
+  </si>
+  <si>
+    <t>2740</t>
+  </si>
+  <si>
+    <t>3178</t>
+  </si>
+  <si>
+    <t>3328</t>
+  </si>
+  <si>
+    <t>2868</t>
+  </si>
+  <si>
+    <t>2284</t>
+  </si>
+  <si>
+    <t>2818</t>
+  </si>
+  <si>
+    <t>2879</t>
+  </si>
+  <si>
+    <t>2981</t>
+  </si>
+  <si>
+    <t>2750</t>
+  </si>
+  <si>
+    <t>2907</t>
+  </si>
+  <si>
+    <t>3151</t>
+  </si>
+  <si>
+    <t>3355</t>
+  </si>
+  <si>
+    <t>3585</t>
+  </si>
+  <si>
+    <t>3188</t>
+  </si>
+  <si>
+    <t>3746</t>
+  </si>
+  <si>
+    <t>3757</t>
+  </si>
+  <si>
+    <t>3870</t>
+  </si>
+  <si>
+    <t>4020</t>
+  </si>
+  <si>
+    <t>4157</t>
+  </si>
+  <si>
+    <t>4398</t>
+  </si>
+  <si>
+    <t>4812</t>
+  </si>
+  <si>
+    <t>5088</t>
+  </si>
+  <si>
+    <t>5024</t>
+  </si>
+  <si>
+    <t>4991</t>
+  </si>
+  <si>
+    <t>5145</t>
+  </si>
+  <si>
+    <t>5243</t>
+  </si>
+  <si>
+    <t>5361</t>
+  </si>
+  <si>
+    <t>5469</t>
+  </si>
+  <si>
+    <t>5262</t>
+  </si>
+  <si>
+    <t>4850</t>
+  </si>
+  <si>
+    <t>4889</t>
+  </si>
+  <si>
+    <t>4697</t>
+  </si>
+  <si>
+    <t>4708.23191341973</t>
+  </si>
+  <si>
+    <t>4850.22333074477</t>
+  </si>
+  <si>
+    <t>4816.92359011747</t>
+  </si>
+  <si>
+    <t>4856.98538931291</t>
+  </si>
+  <si>
+    <t>5142.38400437617</t>
+  </si>
+  <si>
+    <t>5451.63444208551</t>
+  </si>
+  <si>
+    <t>5638.48016713353</t>
+  </si>
+  <si>
+    <t>6069.77731672431</t>
+  </si>
+  <si>
+    <t>6421.508468349</t>
+  </si>
+  <si>
+    <t>6834.55387976764</t>
+  </si>
+  <si>
+    <t>7218.24576822021</t>
+  </si>
+  <si>
+    <t>7814.83816030878</t>
+  </si>
+  <si>
+    <t>8590.17752627433</t>
+  </si>
+  <si>
+    <t>9182.29418389124</t>
+  </si>
+  <si>
+    <t>9969.62260937367</t>
+  </si>
+  <si>
+    <t>10385.7791083296</t>
+  </si>
+  <si>
+    <t>10974.7422866613</t>
+  </si>
+  <si>
+    <t>11475.0024058251</t>
+  </si>
+  <si>
+    <t>11907.021496637</t>
+  </si>
+  <si>
+    <t>12587.744251356</t>
+  </si>
+  <si>
+    <t>13204</t>
+  </si>
+  <si>
+    <t>13379</t>
+  </si>
+  <si>
+    <t>13494</t>
+  </si>
+  <si>
+    <t>13744</t>
+  </si>
+  <si>
+    <t>14004</t>
+  </si>
+  <si>
+    <t>14331</t>
   </si>
   <si>
     <t>Description</t>
@@ -3576,6 +3594,108 @@
         <v>70</v>
       </c>
     </row>
+    <row r="193">
+      <c r="A193" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="B193" t="s">
+        <v>5</v>
+      </c>
+      <c r="C193" t="s">
+        <v>6</v>
+      </c>
+      <c r="D193" t="n">
+        <v>2011.0</v>
+      </c>
+      <c r="E193" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="B194" t="s">
+        <v>5</v>
+      </c>
+      <c r="C194" t="s">
+        <v>6</v>
+      </c>
+      <c r="D194" t="n">
+        <v>2012.0</v>
+      </c>
+      <c r="E194" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="B195" t="s">
+        <v>5</v>
+      </c>
+      <c r="C195" t="s">
+        <v>6</v>
+      </c>
+      <c r="D195" t="n">
+        <v>2013.0</v>
+      </c>
+      <c r="E195" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="B196" t="s">
+        <v>5</v>
+      </c>
+      <c r="C196" t="s">
+        <v>6</v>
+      </c>
+      <c r="D196" t="n">
+        <v>2014.0</v>
+      </c>
+      <c r="E196" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="B197" t="s">
+        <v>5</v>
+      </c>
+      <c r="C197" t="s">
+        <v>6</v>
+      </c>
+      <c r="D197" t="n">
+        <v>2015.0</v>
+      </c>
+      <c r="E197" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="B198" t="s">
+        <v>5</v>
+      </c>
+      <c r="C198" t="s">
+        <v>6</v>
+      </c>
+      <c r="D198" t="n">
+        <v>2016.0</v>
+      </c>
+      <c r="E198" t="s">
+        <v>76</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
@@ -3591,50 +3711,50 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="B1" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="B2" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="B3" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="B4" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="B5" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="B6" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
     </row>
   </sheetData>
